--- a/data/trans_dic/P1410-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1410-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08309450530488424</v>
+        <v>0.08243372196293026</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07912669480672836</v>
+        <v>0.07892052895530914</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06006080479427846</v>
+        <v>0.0611767588690289</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1058451488410801</v>
+        <v>0.1042706641432536</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06461507686202668</v>
+        <v>0.06444332862411757</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0767830121835872</v>
+        <v>0.07777573263911007</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08327023264763295</v>
+        <v>0.08389187211412237</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1058504865703632</v>
+        <v>0.1067647106047643</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07775515482631178</v>
+        <v>0.07776915897979558</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08329471144022822</v>
+        <v>0.08330517499647598</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07865297622999243</v>
+        <v>0.07934147538430812</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1119439946387433</v>
+        <v>0.1100679781990345</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1207916277154893</v>
+        <v>0.1176807784049416</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1186841813088072</v>
+        <v>0.1188382945278167</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0976260309121445</v>
+        <v>0.09754498516465895</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1534523858187783</v>
+        <v>0.156026440087266</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09646362873095392</v>
+        <v>0.09600831715974895</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1087632912912036</v>
+        <v>0.1096208645231134</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1257553356739035</v>
+        <v>0.1258872595069891</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1398821095024361</v>
+        <v>0.1411651521399405</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1011445653278301</v>
+        <v>0.1004626956830662</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1083121821948405</v>
+        <v>0.1079573800028495</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1081437576361723</v>
+        <v>0.1092064584985958</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1394085291124847</v>
+        <v>0.1387223977903044</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.0231955455332761</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.0207773196795694</v>
+        <v>0.02077731967956939</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.01605342244395378</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01336456297974731</v>
+        <v>0.01358265876745488</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01181030549430106</v>
+        <v>0.01227491929449302</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02233864575685116</v>
+        <v>0.02142262344775308</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03198172726070633</v>
+        <v>0.03152272937591379</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.00804719589656768</v>
+        <v>0.008499571531281161</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.009003892455056674</v>
+        <v>0.008783748961988705</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01735738630870916</v>
+        <v>0.0166706548542365</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01640662895513342</v>
+        <v>0.01640414541020432</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01209090120599451</v>
+        <v>0.01204691786680573</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01163947950313799</v>
+        <v>0.01159549031067355</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02130582086327606</v>
+        <v>0.02135170582080265</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02504020841785242</v>
+        <v>0.02482120344068636</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02612575796810764</v>
+        <v>0.02653203436126438</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02329940696985496</v>
+        <v>0.02403265904599146</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0367547372825436</v>
+        <v>0.03671075222178203</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04735253831495078</v>
+        <v>0.04673520745907178</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02029171546603127</v>
+        <v>0.01963225415419638</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02081708726331644</v>
+        <v>0.02140364632551212</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.032109299908648</v>
+        <v>0.03107389889560211</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02709836144528588</v>
+        <v>0.0274820209993822</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02077964261629041</v>
+        <v>0.02054245555424557</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01983160609939806</v>
+        <v>0.01977557898575428</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0318275881402949</v>
+        <v>0.0311471076542155</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03504271093147952</v>
+        <v>0.03436841703616448</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.01744326399865584</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.04394996586180799</v>
+        <v>0.04394996586180798</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.004629535040329346</v>
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01571903772340829</v>
+        <v>0.0152454026280037</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002029166796488583</v>
+        <v>0.000255387854203047</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007623434541941199</v>
+        <v>0.00786978234097249</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03245320091592915</v>
+        <v>0.03248379405082319</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.009460656768110573</v>
+        <v>0.009236989183121887</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01625624822736496</v>
+        <v>0.01625678302850558</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.009703541384884336</v>
+        <v>0.009837271589233811</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.002096810053233046</v>
+        <v>0.002124662288992102</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01123862876659262</v>
+        <v>0.01092961958248188</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02674594133635115</v>
+        <v>0.02580747826841872</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04673945730898785</v>
+        <v>0.04330648236471885</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01687396572825097</v>
+        <v>0.01662330477983005</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03334877597767152</v>
+        <v>0.03390704522407086</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05948533745236599</v>
+        <v>0.06094511495169426</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01666412591963664</v>
+        <v>0.01723364393442537</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01829219575462213</v>
+        <v>0.01457930460773438</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03323332307591621</v>
+        <v>0.03289797375917905</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03425571237520463</v>
+        <v>0.03385320363392317</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02645788668297062</v>
+        <v>0.02726788112090997</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01250184316628058</v>
+        <v>0.01199640538777364</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02766241056466573</v>
+        <v>0.02837560718050766</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04337974367089333</v>
+        <v>0.04227292431347996</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03900027898647941</v>
+        <v>0.03894281461263312</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03259929927477664</v>
+        <v>0.03244274822064732</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03153511463120424</v>
+        <v>0.03183935831339842</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04709043610618938</v>
+        <v>0.04753280021449181</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03150103171217517</v>
+        <v>0.03129663667719019</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03525784537944941</v>
+        <v>0.03535423583814654</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03760280478008154</v>
+        <v>0.03791012508825767</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03835175486574779</v>
+        <v>0.03846137434913417</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03657946033317552</v>
+        <v>0.0365154633036894</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03529978365804864</v>
+        <v>0.0356459498845589</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03705965660467268</v>
+        <v>0.03665441112661977</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04422003022825936</v>
+        <v>0.04469571329133574</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05352067719743866</v>
+        <v>0.05355845896557711</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04591649117916737</v>
+        <v>0.04591362675728967</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04466552341727958</v>
+        <v>0.0444881134374727</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0617374987474827</v>
+        <v>0.0627792434656689</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.044853782547829</v>
+        <v>0.04500453011085189</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04991398067294458</v>
+        <v>0.04915913190792589</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05300586955557648</v>
+        <v>0.05327791121011061</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04960302987000283</v>
+        <v>0.04955916299307</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04659699817191171</v>
+        <v>0.046303080971237</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0450334728489214</v>
+        <v>0.04536624403856348</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0470302178893681</v>
+        <v>0.04676335294512837</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05353664073675533</v>
+        <v>0.05313393567157044</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>85731</v>
+        <v>85049</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>77120</v>
+        <v>76919</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45307</v>
+        <v>46149</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>61130</v>
+        <v>60221</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>84976</v>
+        <v>84750</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>102629</v>
+        <v>103956</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>82826</v>
+        <v>83444</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>86872</v>
+        <v>87623</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>182479</v>
+        <v>182511</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>192515</v>
+        <v>192540</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>137565</v>
+        <v>138769</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>156526</v>
+        <v>153903</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>124624</v>
+        <v>121414</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>115675</v>
+        <v>115825</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>73644</v>
+        <v>73583</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>88625</v>
+        <v>90112</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>126861</v>
+        <v>126262</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>145375</v>
+        <v>146521</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>125084</v>
+        <v>125215</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>114803</v>
+        <v>115856</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>237370</v>
+        <v>235769</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>250337</v>
+        <v>249517</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>189144</v>
+        <v>191003</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>194928</v>
+        <v>193969</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22632</v>
+        <v>23001</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>23195</v>
+        <v>24107</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>46384</v>
+        <v>44482</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>71265</v>
+        <v>70243</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>12776</v>
+        <v>13495</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>15798</v>
+        <v>15412</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>34512</v>
+        <v>33146</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>35574</v>
+        <v>35569</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>39671</v>
+        <v>39527</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>43282</v>
+        <v>43118</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>86601</v>
+        <v>86788</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>110092</v>
+        <v>109129</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>44242</v>
+        <v>44930</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45759</v>
+        <v>47199</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>76317</v>
+        <v>76226</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>105516</v>
+        <v>104141</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>32217</v>
+        <v>31170</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>36525</v>
+        <v>37555</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>63843</v>
+        <v>61784</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>58757</v>
+        <v>59589</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>68180</v>
+        <v>67402</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>73745</v>
+        <v>73536</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>129369</v>
+        <v>126603</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>154069</v>
+        <v>151105</v>
       </c>
     </row>
     <row r="12">
@@ -1823,16 +1823,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8668</v>
+        <v>8406</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>976</v>
+        <v>123</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4169</v>
+        <v>4304</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>23093</v>
+        <v>23115</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -1841,22 +1841,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5195</v>
+        <v>5072</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11935</v>
+        <v>11936</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>9973</v>
+        <v>10111</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1971</v>
+        <v>1997</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>12318</v>
+        <v>11979</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>38669</v>
+        <v>37312</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>25773</v>
+        <v>23880</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8119</v>
+        <v>7999</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18238</v>
+        <v>18543</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>42329</v>
+        <v>43368</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7939</v>
+        <v>8210</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8389</v>
+        <v>6687</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>18250</v>
+        <v>18066</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25150</v>
+        <v>24855</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>27194</v>
+        <v>28026</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>11749</v>
+        <v>11274</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>30319</v>
+        <v>31100</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>62718</v>
+        <v>61117</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>127786</v>
+        <v>127598</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>111482</v>
+        <v>110947</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>106514</v>
+        <v>107541</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>165638</v>
+        <v>167194</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>106448</v>
+        <v>105758</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>125160</v>
+        <v>125502</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>132817</v>
+        <v>133902</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>142791</v>
+        <v>143199</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>243463</v>
+        <v>243037</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>246026</v>
+        <v>248439</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>256072</v>
+        <v>253272</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>320182</v>
+        <v>323626</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>175363</v>
+        <v>175487</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>157024</v>
+        <v>157015</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>150863</v>
+        <v>150264</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>217158</v>
+        <v>220823</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>151570</v>
+        <v>152079</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>177186</v>
+        <v>174507</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>187222</v>
+        <v>188183</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>184682</v>
+        <v>184519</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>310138</v>
+        <v>308181</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>313866</v>
+        <v>316185</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>324966</v>
+        <v>323122</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>387640</v>
+        <v>384724</v>
       </c>
     </row>
     <row r="20">
